--- a/LR1\2/СМ5-31Б_ЛР1_Поседкин_НМ_Паламарчук_АД.xlsx
+++ b/LR1\2/СМ5-31Б_ЛР1_Поседкин_НМ_Паламарчук_АД.xlsx
@@ -81,10 +81,10 @@
     <t>0.624</t>
   </si>
   <si>
+    <t>0.1</t>
+  </si>
+  <si>
     <t>0.640</t>
-  </si>
-  <si>
-    <t>0.1</t>
   </si>
   <si>
     <t>0.631</t>
@@ -245,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
@@ -266,6 +266,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="11" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -279,6 +280,1227 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Лист1'!$J$3:$J$46</c:f>
+              <c:strCache>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>143476,5204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>143876,5204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144276,5204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144676,5204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>145076,5204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>145476,5204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>145876,5204</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>146276,5204</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>146676,5204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>147076,5204</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>147476,5204</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>147876,5204</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>148276,5204</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>148676,5204</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>149076,5204</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>149476,5204</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>149876,5204</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>150276,5204</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>150676,5204</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>151076,5204</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>151476,5204</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>151876,5204</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>152276,5204</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>152676,5204</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>153076,5204</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>153476,5204</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>153876,5204</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>154276,5204</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>154676,5204</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>155076,5204</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>155476,5204</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155876,5204</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>156276,5204</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>156676,5204</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>157076,5204</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>157476,5204</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>157876,5204</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>158276,5204</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>158676,5204</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>159076,5204</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>159476,5204</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>159876,5204</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>160276,5204</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>160676,5204</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Лист1'!$K$3:$K$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>5.791335371006927e-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1401693741645758e-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1784507719254556e-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.039372013489463e-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.268882973633004e-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0000012694313648951914</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0000021514858549355756</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.000003538795681191331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.000005648852111271089</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.000008750898451268508</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.000013156270865111875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.000019195555792985398</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.00002718042850726691</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.00003735077607672616</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.00004981162199964847</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.00006446878127797334</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.00008097593285658542</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.00009870750675858278</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.00011677022782555609</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.00013406079661549604</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0001493685574704271</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.00016151181619334854</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.00016948729078705786</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.00017260671903397516</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.00017059487503884682</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.00016362964404462133</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.00015231606593117496</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0001375995981047825</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.00012063583641032105</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.00010264155828823724</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.00008475354193219293</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.00006791726672574691</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.000052819011061710864</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.00003986465907222723</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.00002919937568920979</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.00002075614999221276</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.00001431883741356916</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.000009586419685335957</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.000006228634418912714</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.000003927506996726093</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.000002403415271429777</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0000014273431273487372</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.226511005087521e-7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.6014075494151394e-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="664968997"/>
+        <c:axId val="664968998"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="664968997"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="160676"/>
+          <c:min val="143477"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664968998"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="664968998"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664968997"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="4010024" y="2638424"/>
+      <a:ext cx="4552949" cy="2724149"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>847724</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="499647986" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4010024" y="2638424"/>
+        <a:ext cx="4552949" cy="2724149"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
@@ -787,6 +2009,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="5.7109375"/>
     <col customWidth="1" min="2" max="10" width="15.7109375"/>
+    <col bestFit="1" min="11" max="11" width="10.8515625"/>
     <col min="13" max="13" style="0" width="9.140625"/>
   </cols>
   <sheetData>
@@ -823,12 +2046,22 @@
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D3" s="5">
         <v>151244</v>
       </c>
       <c r="E3" s="4">
         <v>99300</v>
+      </c>
+      <c r="J3">
+        <f>152720-4*$G$13</f>
+        <v>143476.52040910089</v>
+      </c>
+      <c r="K3">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J3-$G$8)^2)/(2*$G$13^2))</f>
+        <v>5.7913353710069269e-08</v>
       </c>
       <c r="M3" s="4"/>
     </row>
@@ -837,16 +2070,24 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4">
         <v>149691</v>
       </c>
       <c r="E4" s="4">
         <v>89200</v>
+      </c>
+      <c r="J4">
+        <f>J3+400</f>
+        <v>143876.52040910089</v>
+      </c>
+      <c r="K4" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J4-$G$8)^2)/(2*$G$13^2))</f>
+        <v>1.1401693741645758e-07</v>
       </c>
       <c r="M4" s="4"/>
     </row>
@@ -858,13 +2099,21 @@
         <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4">
         <v>156663</v>
       </c>
       <c r="E5" s="4">
         <v>88600</v>
+      </c>
+      <c r="J5">
+        <f>J4+400</f>
+        <v>144276.52040910089</v>
+      </c>
+      <c r="K5" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J5-$G$8)^2)/(2*$G$13^2))</f>
+        <v>2.1784507719254556e-07</v>
       </c>
       <c r="M5" s="4"/>
     </row>
@@ -876,13 +2125,21 @@
         <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4">
         <v>152209</v>
       </c>
       <c r="E6" s="4">
         <v>85200</v>
+      </c>
+      <c r="J6">
+        <f>J5+400</f>
+        <v>144676.52040910089</v>
+      </c>
+      <c r="K6" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J6-$G$8)^2)/(2*$G$13^2))</f>
+        <v>4.039372013489463e-07</v>
       </c>
       <c r="M6" s="4"/>
     </row>
@@ -894,13 +2151,21 @@
         <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4">
         <v>156133</v>
       </c>
       <c r="E7" s="4">
         <v>99400</v>
+      </c>
+      <c r="J7">
+        <f>J6+400</f>
+        <v>145076.52040910089</v>
+      </c>
+      <c r="K7" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J7-$G$8)^2)/(2*$G$13^2))</f>
+        <v>7.2688829736330035e-07</v>
       </c>
       <c r="M7" s="4"/>
     </row>
@@ -912,13 +2177,29 @@
         <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4">
         <v>152990</v>
       </c>
       <c r="E8" s="4">
         <v>85200</v>
+      </c>
+      <c r="G8">
+        <f>AVERAGE(D3:D22)</f>
+        <v>152720</v>
+      </c>
+      <c r="H8">
+        <f>AVERAGE(E3:E22)</f>
+        <v>91885</v>
+      </c>
+      <c r="J8">
+        <f>J7+400</f>
+        <v>145476.52040910089</v>
+      </c>
+      <c r="K8" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J8-$G$8)^2)/(2*$G$13^2))</f>
+        <v>1.2694313648951914e-06</v>
       </c>
       <c r="M8" s="4"/>
     </row>
@@ -930,7 +2211,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4">
         <v>151230</v>
@@ -938,6 +2219,14 @@
       <c r="E9" s="4">
         <v>97700</v>
       </c>
+      <c r="J9">
+        <f>J8+400</f>
+        <v>145876.52040910089</v>
+      </c>
+      <c r="K9" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J9-$G$8)^2)/(2*$G$13^2))</f>
+        <v>2.1514858549355756e-06</v>
+      </c>
       <c r="M9" s="4"/>
     </row>
     <row r="10">
@@ -948,13 +2237,21 @@
         <v>15</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="4">
         <v>153284</v>
       </c>
       <c r="E10" s="4">
         <v>97600</v>
+      </c>
+      <c r="J10">
+        <f>J9+400</f>
+        <v>146276.52040910089</v>
+      </c>
+      <c r="K10" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J10-$G$8)^2)/(2*$G$13^2))</f>
+        <v>3.538795681191331e-06</v>
       </c>
       <c r="M10" s="4"/>
     </row>
@@ -966,13 +2263,21 @@
         <v>16</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4">
         <v>152075</v>
       </c>
       <c r="E11" s="4">
         <v>94600</v>
+      </c>
+      <c r="J11">
+        <f>J10+400</f>
+        <v>146676.52040910089</v>
+      </c>
+      <c r="K11" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J11-$G$8)^2)/(2*$G$13^2))</f>
+        <v>5.6488521112710894e-06</v>
       </c>
       <c r="M11" s="4"/>
     </row>
@@ -984,13 +2289,21 @@
         <v>17</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="4">
         <v>155186</v>
       </c>
       <c r="E12" s="4">
         <v>90700</v>
+      </c>
+      <c r="J12">
+        <f>J11+400</f>
+        <v>147076.52040910089</v>
+      </c>
+      <c r="K12" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J12-$G$8)^2)/(2*$G$13^2))</f>
+        <v>8.7508984512685077e-06</v>
       </c>
       <c r="M12" s="4"/>
     </row>
@@ -1002,13 +2315,29 @@
         <v>18</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="4">
         <v>152837</v>
       </c>
       <c r="E13" s="4">
         <v>91400</v>
+      </c>
+      <c r="G13">
+        <f>STDEV(D3:D22)</f>
+        <v>2310.8698977247782</v>
+      </c>
+      <c r="H13">
+        <f>STDEV(E3:E22)</f>
+        <v>4873.6968568666207</v>
+      </c>
+      <c r="J13">
+        <f>J12+400</f>
+        <v>147476.52040910089</v>
+      </c>
+      <c r="K13" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J13-$G$8)^2)/(2*$G$13^2))</f>
+        <v>1.3156270865111875e-05</v>
       </c>
       <c r="M13" s="4"/>
     </row>
@@ -1028,6 +2357,14 @@
       <c r="E14" s="4">
         <v>85900</v>
       </c>
+      <c r="J14">
+        <f>J13+400</f>
+        <v>147876.52040910089</v>
+      </c>
+      <c r="K14" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J14-$G$8)^2)/(2*$G$13^2))</f>
+        <v>1.9195555792985398e-05</v>
+      </c>
       <c r="M14" s="4"/>
     </row>
     <row r="15">
@@ -1038,13 +2375,21 @@
         <v>21</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="4">
         <v>152486</v>
       </c>
       <c r="E15" s="4">
         <v>95600</v>
+      </c>
+      <c r="J15">
+        <f>J14+400</f>
+        <v>148276.52040910089</v>
+      </c>
+      <c r="K15" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J15-$G$8)^2)/(2*$G$13^2))</f>
+        <v>2.7180428507266909e-05</v>
       </c>
       <c r="M15" s="4"/>
     </row>
@@ -1056,13 +2401,21 @@
         <v>22</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="4">
         <v>151600</v>
       </c>
       <c r="E16" s="4">
         <v>88200</v>
+      </c>
+      <c r="J16">
+        <f>J15+400</f>
+        <v>148676.52040910089</v>
+      </c>
+      <c r="K16" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J16-$G$8)^2)/(2*$G$13^2))</f>
+        <v>3.7350776076726158e-05</v>
       </c>
       <c r="M16" s="4"/>
     </row>
@@ -1074,13 +2427,21 @@
         <v>23</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="4">
         <v>157045</v>
       </c>
       <c r="E17" s="4">
         <v>96400</v>
+      </c>
+      <c r="J17">
+        <f>J16+400</f>
+        <v>149076.52040910089</v>
+      </c>
+      <c r="K17" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J17-$G$8)^2)/(2*$G$13^2))</f>
+        <v>4.9811621999648471e-05</v>
       </c>
       <c r="M17" s="4"/>
     </row>
@@ -1092,13 +2453,21 @@
         <v>24</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="4">
         <v>149757</v>
       </c>
       <c r="E18" s="4">
         <v>88000</v>
+      </c>
+      <c r="J18">
+        <f>J17+400</f>
+        <v>149476.52040910089</v>
+      </c>
+      <c r="K18" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J18-$G$8)^2)/(2*$G$13^2))</f>
+        <v>6.446878127797334e-05</v>
       </c>
       <c r="M18" s="4"/>
     </row>
@@ -1110,13 +2479,21 @@
         <v>25</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="4">
         <v>148942</v>
       </c>
       <c r="E19" s="4">
         <v>95200</v>
+      </c>
+      <c r="J19">
+        <f>J18+400</f>
+        <v>149876.52040910089</v>
+      </c>
+      <c r="K19" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J19-$G$8)^2)/(2*$G$13^2))</f>
+        <v>8.0975932856585425e-05</v>
       </c>
       <c r="M19" s="4"/>
     </row>
@@ -1128,13 +2505,21 @@
         <v>26</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="4">
         <v>150246</v>
       </c>
       <c r="E20" s="4">
         <v>94600</v>
+      </c>
+      <c r="J20">
+        <f>J19+400</f>
+        <v>150276.52040910089</v>
+      </c>
+      <c r="K20" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J20-$G$8)^2)/(2*$G$13^2))</f>
+        <v>9.8707506758582785e-05</v>
       </c>
       <c r="M20" s="4"/>
     </row>
@@ -1146,13 +2531,21 @@
         <v>26</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="4">
         <v>154568</v>
       </c>
       <c r="E21" s="4">
         <v>86900</v>
+      </c>
+      <c r="J21">
+        <f>J20+400</f>
+        <v>150676.52040910089</v>
+      </c>
+      <c r="K21" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J21-$G$8)^2)/(2*$G$13^2))</f>
+        <v>0.00011677022782555609</v>
       </c>
       <c r="M21" s="4"/>
     </row>
@@ -1164,13 +2557,21 @@
         <v>27</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="4">
         <v>153667</v>
       </c>
       <c r="E22" s="4">
         <v>88000</v>
+      </c>
+      <c r="J22">
+        <f>J21+400</f>
+        <v>151076.52040910089</v>
+      </c>
+      <c r="K22" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J22-$G$8)^2)/(2*$G$13^2))</f>
+        <v>0.00013406079661549604</v>
       </c>
       <c r="M22" s="4"/>
     </row>
@@ -1184,7 +2585,15 @@
       <c r="C23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="J23">
+        <f>J22+400</f>
+        <v>151476.52040910089</v>
+      </c>
+      <c r="K23" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J23-$G$8)^2)/(2*$G$13^2))</f>
+        <v>0.00014936855747042709</v>
+      </c>
       <c r="M23" s="4"/>
     </row>
     <row r="24">
@@ -1197,7 +2606,15 @@
       <c r="C24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="J24">
+        <f>J23+400</f>
+        <v>151876.52040910089</v>
+      </c>
+      <c r="K24" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J24-$G$8)^2)/(2*$G$13^2))</f>
+        <v>0.00016151181619334854</v>
+      </c>
       <c r="M24" s="4"/>
     </row>
     <row r="25">
@@ -1210,7 +2627,15 @@
       <c r="C25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="J25">
+        <f>J24+400</f>
+        <v>152276.52040910089</v>
+      </c>
+      <c r="K25" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J25-$G$8)^2)/(2*$G$13^2))</f>
+        <v>0.00016948729078705786</v>
+      </c>
       <c r="M25" s="4"/>
     </row>
     <row r="26">
@@ -1223,7 +2648,15 @@
       <c r="C26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="J26">
+        <f>J25+400</f>
+        <v>152676.52040910089</v>
+      </c>
+      <c r="K26" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J26-$G$8)^2)/(2*$G$13^2))</f>
+        <v>0.00017260671903397516</v>
+      </c>
       <c r="M26" s="4"/>
     </row>
     <row r="27">
@@ -1236,7 +2669,15 @@
       <c r="C27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="J27">
+        <f>J26+400</f>
+        <v>153076.52040910089</v>
+      </c>
+      <c r="K27" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J27-$G$8)^2)/(2*$G$13^2))</f>
+        <v>0.00017059487503884682</v>
+      </c>
       <c r="M27" s="4"/>
     </row>
     <row r="28">
@@ -1247,9 +2688,17 @@
         <v>33</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="J28">
+        <f>J27+400</f>
+        <v>153476.52040910089</v>
+      </c>
+      <c r="K28" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J28-$G$8)^2)/(2*$G$13^2))</f>
+        <v>0.00016362964404462133</v>
+      </c>
       <c r="M28" s="4"/>
     </row>
     <row r="29">
@@ -1260,9 +2709,17 @@
         <v>34</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="J29">
+        <f>J28+400</f>
+        <v>153876.52040910089</v>
+      </c>
+      <c r="K29" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J29-$G$8)^2)/(2*$G$13^2))</f>
+        <v>0.00015231606593117496</v>
+      </c>
       <c r="M29" s="4"/>
     </row>
     <row r="30">
@@ -1270,12 +2727,20 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="J30">
+        <f>J29+400</f>
+        <v>154276.52040910089</v>
+      </c>
+      <c r="K30" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J30-$G$8)^2)/(2*$G$13^2))</f>
+        <v>0.00013759959810478249</v>
+      </c>
       <c r="M30" s="4"/>
     </row>
     <row r="31">
@@ -1286,9 +2751,17 @@
         <v>35</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="J31">
+        <f>J30+400</f>
+        <v>154676.52040910089</v>
+      </c>
+      <c r="K31" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J31-$G$8)^2)/(2*$G$13^2))</f>
+        <v>0.00012063583641032105</v>
+      </c>
       <c r="M31" s="4"/>
     </row>
     <row r="32">
@@ -1299,9 +2772,17 @@
         <v>31</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="J32">
+        <f>J31+400</f>
+        <v>155076.52040910089</v>
+      </c>
+      <c r="K32" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J32-$G$8)^2)/(2*$G$13^2))</f>
+        <v>0.00010264155828823724</v>
+      </c>
       <c r="M32" s="4"/>
     </row>
     <row r="33">
@@ -1312,9 +2793,17 @@
         <v>23</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="J33">
+        <f>J32+400</f>
+        <v>155476.52040910089</v>
+      </c>
+      <c r="K33" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J33-$G$8)^2)/(2*$G$13^2))</f>
+        <v>8.4753541932192935e-05</v>
+      </c>
       <c r="M33" s="4"/>
     </row>
     <row r="34">
@@ -1325,9 +2814,17 @@
         <v>36</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="J34">
+        <f>J33+400</f>
+        <v>155876.52040910089</v>
+      </c>
+      <c r="K34" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J34-$G$8)^2)/(2*$G$13^2))</f>
+        <v>6.7917266725746911e-05</v>
+      </c>
       <c r="M34" s="4"/>
     </row>
     <row r="35">
@@ -1338,9 +2835,17 @@
         <v>37</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="J35">
+        <f>J34+400</f>
+        <v>156276.52040910089</v>
+      </c>
+      <c r="K35" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J35-$G$8)^2)/(2*$G$13^2))</f>
+        <v>5.2819011061710864e-05</v>
+      </c>
       <c r="M35" s="4"/>
     </row>
     <row r="36">
@@ -1351,9 +2856,17 @@
         <v>36</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="J36">
+        <f>J35+400</f>
+        <v>156676.52040910089</v>
+      </c>
+      <c r="K36" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J36-$G$8)^2)/(2*$G$13^2))</f>
+        <v>3.986465907222723e-05</v>
+      </c>
       <c r="M36" s="4"/>
     </row>
     <row r="37">
@@ -1366,7 +2879,15 @@
       <c r="C37" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="J37">
+        <f>J36+400</f>
+        <v>157076.52040910089</v>
+      </c>
+      <c r="K37" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J37-$G$8)^2)/(2*$G$13^2))</f>
+        <v>2.9199375689209789e-05</v>
+      </c>
       <c r="M37" s="4"/>
     </row>
     <row r="38">
@@ -1379,7 +2900,15 @@
       <c r="C38" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="7"/>
+      <c r="E38" s="8"/>
+      <c r="J38">
+        <f>J37+400</f>
+        <v>157476.52040910089</v>
+      </c>
+      <c r="K38" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J38-$G$8)^2)/(2*$G$13^2))</f>
+        <v>2.0756149992212761e-05</v>
+      </c>
       <c r="M38" s="4"/>
     </row>
     <row r="39">
@@ -1392,7 +2921,15 @@
       <c r="C39" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="7"/>
+      <c r="E39" s="8"/>
+      <c r="J39">
+        <f>J38+400</f>
+        <v>157876.52040910089</v>
+      </c>
+      <c r="K39" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J39-$G$8)^2)/(2*$G$13^2))</f>
+        <v>1.431883741356916e-05</v>
+      </c>
       <c r="M39" s="4"/>
     </row>
     <row r="40">
@@ -1405,7 +2942,15 @@
       <c r="C40" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="7"/>
+      <c r="E40" s="8"/>
+      <c r="J40">
+        <f>J39+400</f>
+        <v>158276.52040910089</v>
+      </c>
+      <c r="K40" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J40-$G$8)^2)/(2*$G$13^2))</f>
+        <v>9.5864196853359574e-06</v>
+      </c>
       <c r="M40" s="4"/>
     </row>
     <row r="41">
@@ -1418,7 +2963,15 @@
       <c r="C41" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="7"/>
+      <c r="E41" s="8"/>
+      <c r="J41">
+        <f>J40+400</f>
+        <v>158676.52040910089</v>
+      </c>
+      <c r="K41" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J41-$G$8)^2)/(2*$G$13^2))</f>
+        <v>6.2286344189127137e-06</v>
+      </c>
       <c r="M41" s="4"/>
     </row>
     <row r="42">
@@ -1431,7 +2984,15 @@
       <c r="C42" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="7"/>
+      <c r="E42" s="8"/>
+      <c r="J42">
+        <f>J41+400</f>
+        <v>159076.52040910089</v>
+      </c>
+      <c r="K42" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J42-$G$8)^2)/(2*$G$13^2))</f>
+        <v>3.9275069967260932e-06</v>
+      </c>
       <c r="M42" s="4"/>
     </row>
     <row r="43">
@@ -1444,7 +3005,15 @@
       <c r="C43" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="7"/>
+      <c r="E43" s="8"/>
+      <c r="J43">
+        <f>J42+400</f>
+        <v>159476.52040910089</v>
+      </c>
+      <c r="K43" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J43-$G$8)^2)/(2*$G$13^2))</f>
+        <v>2.4034152714297771e-06</v>
+      </c>
       <c r="M43" s="4"/>
     </row>
     <row r="44">
@@ -1455,9 +3024,17 @@
         <v>7</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="J44">
+        <f>J43+400</f>
+        <v>159876.52040910089</v>
+      </c>
+      <c r="K44" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J44-$G$8)^2)/(2*$G$13^2))</f>
+        <v>1.4273431273487372e-06</v>
+      </c>
       <c r="M44" s="4"/>
     </row>
     <row r="45">
@@ -1468,9 +3045,17 @@
         <v>44</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="J45">
+        <f>J44+400</f>
+        <v>160276.52040910089</v>
+      </c>
+      <c r="K45" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J45-$G$8)^2)/(2*$G$13^2))</f>
+        <v>8.2265110050875207e-07</v>
+      </c>
       <c r="M45" s="4"/>
     </row>
     <row r="46">
@@ -1481,9 +3066,17 @@
         <v>45</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="J46">
+        <f>J45+400</f>
+        <v>160676.52040910089</v>
+      </c>
+      <c r="K46" s="7">
+        <f>(1/(($G$13)*SQRT(2*PI())))*EXP(-((J46-$G$8)^2)/(2*$G$13^2))</f>
+        <v>4.6014075494151394e-07</v>
+      </c>
       <c r="M46" s="4"/>
     </row>
     <row r="47">
@@ -1494,9 +3087,9 @@
         <v>46</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E47" s="8"/>
       <c r="M47" s="4"/>
     </row>
     <row r="48">
@@ -1507,9 +3100,9 @@
         <v>43</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E48" s="8"/>
       <c r="M48" s="4"/>
     </row>
     <row r="49">
@@ -1520,9 +3113,9 @@
         <v>43</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E49" s="8"/>
       <c r="M49" s="4"/>
     </row>
     <row r="50">
@@ -1533,9 +3126,9 @@
         <v>46</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E50" s="8"/>
       <c r="M50" s="4"/>
     </row>
     <row r="51">
@@ -1546,9 +3139,9 @@
         <v>47</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E51" s="8"/>
       <c r="M51" s="4"/>
     </row>
     <row r="52">
@@ -1559,24 +3152,25 @@
         <v>48</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E52" s="8"/>
       <c r="M52" s="4"/>
     </row>
     <row r="55">
-      <c r="C55" s="8"/>
+      <c r="C55" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{0068009D-0017-4B32-A615-006900330069}">
+          <x14:cfRule type="expression" priority="1" id="{001E0072-0026-4467-B84A-009A00FA0082}">
             <xm:f>MOD(ROW(),2)=0</xm:f>
             <x14:dxf>
               <fill>
@@ -1587,10 +3181,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A3:J3 A4:B13 D4:J13 A14:J14 A15:B16 D15:J16 A17:B22 D17:J22 A23:J24 A25:B27 D25:J27 A28:J29 A30:B36 D30:J36 A37:J38 A39:B43 D39:J43 A44:J45 A46:B52 D46:J52 C4 C5 C15 C16 C6 C7 C8 C9 C10 C11 C12 C13 C17 C18 C19 C20 C21 C22 C25:C26 C27 C30:C31 C32:C33 C34:C35 C36 C39:C40 C41:C42 C43 C46:C47 C48:C49 C50:C51 C52</xm:sqref>
+          <xm:sqref>A3:J3 A4:B13 D4:J4 D5:I13 A14:I14 A15:B16 D15:I16 A17:B22 D17:I22 A23:I24 A25:B27 D25:I27 A28:I29 A30:B36 D30:I35 D36:I36 A37:I38 A39:B43 D39:I43 A44:I45 A46:B52 D46:I46 D47:J52 C4 C5 C15 C16 C6 C7 C8 C9 C10 C11 C12 C13 C17 C18 C19 C20 C21 C22 C25:C26 C27 C30:C31 C32:C33 C34:C35 C36 C39:C40 C41:C42 C43 C46:C47 C48:C49 C50:C51 C52 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00A200AD-0097-4C93-85EF-002700860025}">
+          <x14:cfRule type="expression" priority="1" id="{00E300A6-0070-46E3-BF34-00E8003600DE}">
             <xm:f>MOD(ROW(),2)=0</xm:f>
             <x14:dxf>
               <fill>
